--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c206_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c206_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -738,10 +750,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -785,28 +797,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -831,28 +843,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1375,10 +1387,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1422,28 +1434,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1468,28 +1480,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1809,10 +1821,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1856,28 +1868,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1902,28 +1914,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2301,10 +2313,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2348,28 +2360,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2394,28 +2406,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2909,10 +2921,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2956,28 +2968,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3002,28 +3014,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3372,10 +3384,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3419,28 +3431,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3465,28 +3477,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3748,10 +3760,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3795,28 +3807,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3841,28 +3853,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3979,10 +3991,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="J133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4026,28 +4038,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4072,28 +4084,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4297,10 +4309,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
+      <c r="J144" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4344,28 +4356,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4390,28 +4402,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4499,10 +4511,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="J151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
